--- a/output_analysis/SPREAD_1_SEC_2.0_ENERGY_1.0_EV-FACTOR_11_EV_25_FLEX_300_TPS.txt.xlsx
+++ b/output_analysis/SPREAD_1_SEC_2.0_ENERGY_1.0_EV-FACTOR_11_EV_25_FLEX_300_TPS.txt.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H12"/>
+  <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -434,348 +434,315 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Vehicle-ID</t>
+        </is>
+      </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Unnamed: 0</t>
+          <t>Trips</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Vehicle-ID</t>
+          <t>Number of Trips</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Trips</t>
+          <t>Sequential Coverage</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Ride-share Distances</t>
+          <t>Ride-share Coverage</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Individual Coverages</t>
+          <t>Individual Coverage</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>Individual Energy</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>Ride-share Energy</t>
+          <t>Individual Cars</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" t="n">
         <v>0</v>
       </c>
-      <c r="B2" t="n">
-        <v>0</v>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>9 23 28 203</t>
+        </is>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>1 8 26 254</t>
-        </is>
+        <v>4</v>
+      </c>
+      <c r="D2" t="n">
+        <v>112</v>
       </c>
       <c r="E2" t="n">
         <v>100</v>
       </c>
       <c r="F2" t="n">
-        <v>108</v>
+        <v>6</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
-      </c>
-      <c r="H2" t="n">
-        <v>108</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="n">
+      <c r="A3" t="n">
         <v>1</v>
       </c>
-      <c r="B3" t="n">
-        <v>1</v>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>10 35 83</t>
+        </is>
       </c>
       <c r="C3" t="n">
-        <v>1</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>6 15 149 213</t>
-        </is>
+        <v>3</v>
+      </c>
+      <c r="D3" t="n">
+        <v>101</v>
       </c>
       <c r="E3" t="n">
         <v>100</v>
       </c>
       <c r="F3" t="n">
-        <v>104</v>
+        <v>25</v>
       </c>
       <c r="G3" t="n">
-        <v>100</v>
-      </c>
-      <c r="H3" t="n">
-        <v>104</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="n">
+      <c r="A4" t="n">
         <v>2</v>
       </c>
-      <c r="B4" t="n">
-        <v>2</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>21 33 100 148</t>
+        </is>
       </c>
       <c r="C4" t="n">
-        <v>2</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>9 14 29 33 77 133</t>
-        </is>
+        <v>4</v>
+      </c>
+      <c r="D4" t="n">
+        <v>81</v>
       </c>
       <c r="E4" t="n">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="F4" t="n">
-        <v>133</v>
+        <v>14</v>
       </c>
       <c r="G4" t="n">
-        <v>100</v>
-      </c>
-      <c r="H4" t="n">
-        <v>133</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="n">
-        <v>3</v>
+      <c r="A5" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>30 168 186</t>
+        </is>
       </c>
       <c r="C5" t="n">
         <v>3</v>
       </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>10 17 38 44 65 86</t>
-        </is>
+      <c r="D5" t="n">
+        <v>97</v>
       </c>
       <c r="E5" t="n">
         <v>100</v>
       </c>
       <c r="F5" t="n">
-        <v>104</v>
+        <v>6</v>
       </c>
       <c r="G5" t="n">
-        <v>100</v>
-      </c>
-      <c r="H5" t="n">
-        <v>104</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="n">
-        <v>4</v>
+      <c r="A6" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>36 50 261</t>
+        </is>
       </c>
       <c r="C6" t="n">
-        <v>4</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>18 22 55 71 145</t>
-        </is>
+        <v>3</v>
+      </c>
+      <c r="D6" t="n">
+        <v>72</v>
       </c>
       <c r="E6" t="n">
         <v>100</v>
       </c>
       <c r="F6" t="n">
-        <v>119</v>
+        <v>4</v>
       </c>
       <c r="G6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>40 51 111</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>3</v>
+      </c>
+      <c r="D7" t="n">
+        <v>78</v>
+      </c>
+      <c r="E7" t="n">
+        <v>96</v>
+      </c>
+      <c r="F7" t="n">
+        <v>38</v>
+      </c>
+      <c r="G7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>55 88 232 280</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>4</v>
+      </c>
+      <c r="D8" t="n">
+        <v>92</v>
+      </c>
+      <c r="E8" t="n">
         <v>100</v>
       </c>
-      <c r="H6" t="n">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="n">
-        <v>5</v>
-      </c>
-      <c r="C7" t="n">
-        <v>5</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>24 93 99 126</t>
-        </is>
-      </c>
-      <c r="E7" t="n">
-        <v>98</v>
-      </c>
-      <c r="F7" t="n">
-        <v>88</v>
-      </c>
-      <c r="G7" t="n">
-        <v>98</v>
-      </c>
-      <c r="H7" t="n">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
+      <c r="F8" t="n">
         <v>6</v>
       </c>
-      <c r="B8" t="n">
-        <v>6</v>
-      </c>
-      <c r="C8" t="n">
-        <v>6</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>40 53 231</t>
-        </is>
-      </c>
-      <c r="E8" t="n">
-        <v>98</v>
-      </c>
-      <c r="F8" t="n">
-        <v>98</v>
-      </c>
       <c r="G8" t="n">
-        <v>98</v>
-      </c>
-      <c r="H8" t="n">
-        <v>98</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="1" t="n">
+      <c r="A9" t="n">
         <v>7</v>
       </c>
-      <c r="B9" t="n">
-        <v>7</v>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>62 122 230</t>
+        </is>
       </c>
       <c r="C9" t="n">
-        <v>7</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>43 107 143 146</t>
-        </is>
+        <v>3</v>
+      </c>
+      <c r="D9" t="n">
+        <v>75</v>
       </c>
       <c r="E9" t="n">
         <v>100</v>
       </c>
       <c r="F9" t="n">
-        <v>98</v>
+        <v>5</v>
       </c>
       <c r="G9" t="n">
-        <v>100</v>
-      </c>
-      <c r="H9" t="n">
-        <v>98</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="n">
+      <c r="A10" t="n">
         <v>8</v>
       </c>
-      <c r="B10" t="n">
-        <v>8</v>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>71 124 165</t>
+        </is>
       </c>
       <c r="C10" t="n">
-        <v>8</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>56 64 95 115</t>
-        </is>
+        <v>3</v>
+      </c>
+      <c r="D10" t="n">
+        <v>64</v>
       </c>
       <c r="E10" t="n">
         <v>100</v>
       </c>
       <c r="F10" t="n">
-        <v>96</v>
+        <v>6</v>
       </c>
       <c r="G10" t="n">
-        <v>100</v>
-      </c>
-      <c r="H10" t="n">
-        <v>96</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="1" t="n">
+      <c r="A11" t="n">
         <v>9</v>
       </c>
-      <c r="B11" t="n">
-        <v>9</v>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>77 93</t>
+        </is>
       </c>
       <c r="C11" t="n">
-        <v>9</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>59 122 157</t>
-        </is>
+        <v>2</v>
+      </c>
+      <c r="D11" t="n">
+        <v>99</v>
       </c>
       <c r="E11" t="n">
         <v>100</v>
       </c>
       <c r="F11" t="n">
-        <v>89</v>
+        <v>19</v>
       </c>
       <c r="G11" t="n">
-        <v>100</v>
-      </c>
-      <c r="H11" t="n">
-        <v>89</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="n">
+      <c r="A12" t="n">
         <v>10</v>
       </c>
-      <c r="B12" t="n">
-        <v>10</v>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>101 108 159 283</t>
+        </is>
       </c>
       <c r="C12" t="n">
-        <v>10</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>67 90 102 105 117 137</t>
-        </is>
+        <v>4</v>
+      </c>
+      <c r="D12" t="n">
+        <v>111</v>
       </c>
       <c r="E12" t="n">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F12" t="n">
-        <v>107</v>
+        <v>9</v>
       </c>
       <c r="G12" t="n">
-        <v>100</v>
-      </c>
-      <c r="H12" t="n">
-        <v>107</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
